--- a/test_cases/PE-54_TC-04_LogInInvalidPasswordInvalid.xlsx
+++ b/test_cases/PE-54_TC-04_LogInInvalidPasswordInvalid.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nico\Escritorio\.UADE\TESTING\TestingAplicaciones-Smere-TPO\test_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b00242\Desktop\uade\testis\TestingAplicaciones-Smere-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E03E22-0DF9-4B51-BA82-7AEA55A0F6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -159,15 +158,9 @@
     <t>Enter email address</t>
   </si>
   <si>
-    <t>Verify if user can login with an incorrect email format</t>
-  </si>
-  <si>
     <t>TC-54-04</t>
   </si>
   <si>
-    <t>Log In -Password Invalid</t>
-  </si>
-  <si>
     <t>Email address = test@email.com</t>
   </si>
   <si>
@@ -187,12 +180,18 @@
   </si>
   <si>
     <t>System shows error "User or Password are invalid. Please try again" as password is not the password of the account</t>
+  </si>
+  <si>
+    <t>Verify if user can login with an incorrect password</t>
+  </si>
+  <si>
+    <t>Log In - Password Invalid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,94 +677,94 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Note 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Note 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,11 +1041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B5"/>
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,24 +1063,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="G1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="H1" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1093,24 +1092,24 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
+      <c r="E2" s="41"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1121,10 +1120,10 @@
       <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="51"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
@@ -1153,14 +1152,14 @@
       <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="33"/>
+      <c r="K5" s="49"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1169,14 +1168,14 @@
       <c r="G6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="35" t="s">
+      <c r="I6" s="43"/>
+      <c r="J6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -1194,14 +1193,14 @@
       <c r="G7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="36"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
@@ -1214,19 +1213,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G8" s="22">
         <v>3</v>
       </c>
-      <c r="H8" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="36"/>
+      <c r="H8" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
@@ -1239,19 +1238,19 @@
         <v>2</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="22">
         <v>4</v>
       </c>
-      <c r="H9" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="36"/>
+      <c r="H9" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="43"/>
+      <c r="J9" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="43"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F11" s="8"/>
@@ -1260,52 +1259,52 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34" t="s">
+      <c r="L15" s="50"/>
+      <c r="M15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="34"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28" t="s">
+      <c r="J16" s="45"/>
+      <c r="K16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="28" t="s">
+      <c r="L16" s="45"/>
+      <c r="M16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="29"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="7:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G17" s="21" t="s">
@@ -1436,88 +1435,101 @@
       <c r="N23" s="16"/>
     </row>
     <row r="25" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27" t="s">
+      <c r="H25" s="51"/>
+      <c r="I25" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27" t="s">
+      <c r="J25" s="51"/>
+      <c r="K25" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27" t="s">
+      <c r="L25" s="51"/>
+      <c r="M25" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="27"/>
+      <c r="N25" s="51"/>
     </row>
     <row r="26" spans="7:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26" t="s">
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
     </row>
     <row r="27" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="29" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
     </row>
     <row r="30" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
@@ -1532,30 +1544,17 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
